--- a/biology/Zoologie/Condylonucula/Condylonucula.xlsx
+++ b/biology/Zoologie/Condylonucula/Condylonucula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Condylonucula est un genre de mollusques bivalves de la famille des Nuculidae et caractérisés par une très petite taille.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (8 novembre 2018)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (8 novembre 2018) :
 Condylonucula bicornis (Gofas &amp; Salas, 1996)
 Condylonucula cynthiae D. R. Moore, 1977
 Condylonucula maya D. R. Moore, 1977</t>
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Moore, 1977 : Small species of Nuculidae (Bivalvia) from the tropical western Atlantic. The Nautilus, vol. 91, n. 4, p. 119-128 (introduction).</t>
         </is>
